--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -219,10 +219,10 @@
     <t>paralelo</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>id_docente</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -560,15 +560,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>65</v>
@@ -597,10 +597,10 @@
         <v>55</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,10 +611,10 @@
         <v>55</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,10 +625,10 @@
         <v>55</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,10 +639,10 @@
         <v>55</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,10 +653,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
         <v>56</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,10 +695,10 @@
         <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,10 +709,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,10 +723,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,10 +737,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,10 +793,10 @@
         <v>57</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,10 +821,10 @@
         <v>57</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>58</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>58</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>58</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>58</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,10 +891,10 @@
         <v>58</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>59</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>59</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,10 +933,10 @@
         <v>59</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,10 +947,10 @@
         <v>59</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,10 +961,10 @@
         <v>59</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,10 +975,10 @@
         <v>60</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>60</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,10 +1003,10 @@
         <v>60</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>61</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>61</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,10 +1073,10 @@
         <v>61</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,10 +1087,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,10 +1101,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
         <v>62</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,10 +1157,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,10 +1185,10 @@
         <v>62</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>62</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,10 +1213,10 @@
         <v>63</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
         <v>63</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,10 +1241,10 @@
         <v>63</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,10 +1255,10 @@
         <v>63</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,10 +1269,10 @@
         <v>63</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,10 +1283,10 @@
         <v>64</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>64</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,10 +1311,10 @@
         <v>64</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
         <v>64</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="73">
   <si>
     <t>nombre</t>
   </si>
@@ -216,13 +216,28 @@
     <t>Décimo</t>
   </si>
   <si>
-    <t>paralelo</t>
+    <t>A</t>
   </si>
   <si>
     <t>id_docente</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>paralelo_a</t>
+  </si>
+  <si>
+    <t>paralelo_b</t>
+  </si>
+  <si>
+    <t>paralelo_c</t>
+  </si>
+  <si>
+    <t>paralelo_d</t>
   </si>
 </sst>
 </file>
@@ -558,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +590,7 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,10 +601,19 @@
         <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -600,10 +624,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -614,10 +647,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -628,10 +670,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -642,10 +693,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -656,10 +716,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -670,10 +739,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -684,10 +762,19 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -698,10 +785,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -712,10 +808,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -726,10 +831,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -740,10 +854,19 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -754,10 +877,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -768,10 +900,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -782,10 +923,19 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -796,10 +946,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -810,10 +969,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -824,10 +992,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -838,10 +1015,19 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -852,10 +1038,19 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -866,10 +1061,19 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -880,10 +1084,19 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -894,10 +1107,19 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -908,10 +1130,19 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -922,10 +1153,19 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -936,10 +1176,19 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -950,10 +1199,19 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -964,10 +1222,19 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -978,10 +1245,19 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -992,10 +1268,19 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1006,10 +1291,19 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1020,10 +1314,19 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1034,10 +1337,19 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1048,10 +1360,19 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1062,10 +1383,19 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1076,10 +1406,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1090,10 +1429,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1104,10 +1452,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1118,10 +1475,19 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1132,10 +1498,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1146,10 +1521,19 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1160,10 +1544,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1174,10 +1567,19 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1188,10 +1590,19 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1202,10 +1613,19 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1216,10 +1636,19 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1230,10 +1659,19 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1244,10 +1682,19 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1258,10 +1705,19 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1272,10 +1728,19 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1286,10 +1751,19 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1300,10 +1774,19 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1314,10 +1797,19 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1328,6 +1820,15 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
         <v>67</v>
       </c>
     </row>

--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>nombre</t>
   </si>
@@ -216,28 +216,13 @@
     <t>Décimo</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>id_docente</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>paralelo_a</t>
-  </si>
-  <si>
-    <t>paralelo_b</t>
-  </si>
-  <si>
-    <t>paralelo_c</t>
-  </si>
-  <si>
-    <t>paralelo_d</t>
+    <t>paralelo</t>
+  </si>
+  <si>
+    <t>A,B</t>
   </si>
 </sst>
 </file>
@@ -573,15 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -590,7 +575,7 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,22 +583,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -624,19 +600,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -647,19 +614,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -670,19 +628,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -693,19 +642,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -716,19 +656,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -739,19 +670,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -762,19 +684,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -785,19 +698,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -808,19 +712,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -831,19 +726,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -854,19 +740,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -877,19 +754,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -900,19 +768,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -923,19 +782,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -946,19 +796,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -969,19 +810,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -992,19 +824,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1015,19 +838,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1038,19 +852,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1061,19 +866,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1084,19 +880,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1107,19 +894,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1130,19 +908,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1153,19 +922,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1176,19 +936,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1199,19 +950,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1222,19 +964,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1245,19 +978,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1268,19 +992,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1291,19 +1006,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1314,19 +1020,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1337,19 +1034,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1360,19 +1048,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1383,19 +1062,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1406,19 +1076,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1429,19 +1090,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1452,19 +1104,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1475,19 +1118,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1498,19 +1132,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1521,19 +1146,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1544,19 +1160,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1567,19 +1174,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1590,19 +1188,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1613,19 +1202,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1636,19 +1216,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1659,19 +1230,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1682,19 +1244,10 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1705,19 +1258,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1728,19 +1272,10 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1751,19 +1286,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1774,19 +1300,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1797,19 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1820,15 +1328,6 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
         <v>67</v>
       </c>
     </row>

--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B59C3-EADB-44FE-B611-4160FE4D63A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>nombre</t>
   </si>
@@ -27,208 +28,184 @@
     <t>ciclo</t>
   </si>
   <si>
-    <t>INTRODUCCIÓN A LAS CIENCIAS DE LA COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN PROFESIONAL</t>
-  </si>
-  <si>
-    <t>ÁLGEBRA LINEAL</t>
-  </si>
-  <si>
-    <t>TEORÍA DE LA PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS DISCRETAS</t>
-  </si>
-  <si>
-    <t>CÁLCULO DIFERENCIAL</t>
-  </si>
-  <si>
-    <t>TEORÍA DE LA DISTRIBUCIÓN Y PROBABILIDAD</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN ORIENTADA A OBJETOS</t>
-  </si>
-  <si>
-    <t>DISEÑO DE CIRCUITOS</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA Y CAMBIO SOCIAL</t>
-  </si>
-  <si>
-    <t>ESTRUCTURA DE DATOS Y ALGORITMOS FUNDAMENTALES</t>
-  </si>
-  <si>
-    <t>CÁLCULO INTEGRAL</t>
-  </si>
-  <si>
-    <t>ESTADÍSTICA ANALÍTICA</t>
-  </si>
-  <si>
-    <t>BANCOS DE DATOS</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE ORDENADORES</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INTEGRADORA: PROYECTO DE VINCULACIÓN: "CENTRO DE ASESORÍA TECNOLÓGICA"</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS AVANZADAS</t>
-  </si>
-  <si>
-    <t>ECUACIONES DIFERENCIALES</t>
-  </si>
-  <si>
-    <t>INGENIERÍA DE LA CONTAMINACIÓN</t>
-  </si>
-  <si>
-    <t>PROCESAMIENTO DE TRANSACCIONES</t>
-  </si>
-  <si>
-    <t>PROCESOS DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>COMPLEJIDAD COMPUTACIONAL</t>
-  </si>
-  <si>
-    <t>ANÁLISIS NUMÉRICO</t>
-  </si>
-  <si>
-    <t>ECONOMÍA DE LA COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>PLATAFORMAS WEB</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN DE PROYECTOS DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>TEORÍA DE AUTÓMATAS Y COMPUTABILIDAD AVANZADA</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LAS REDES Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>PLATAFORMAS MÓVILES</t>
-  </si>
-  <si>
-    <t>CÁTEGRA INTEGRADORA: APLICACIONES WEB Y MÓVILES</t>
-  </si>
-  <si>
-    <t>COMPILADORES</t>
-  </si>
-  <si>
-    <t>SISTEMAS DISTRIBUIDOS</t>
-  </si>
-  <si>
-    <t>GESTIÓN DE REDES Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>INTERACCIÓN PERSONA-COMPUTADOR</t>
-  </si>
-  <si>
-    <t>METODOLOGÍA DE LA INVESTIGACIÓN EN LA COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INTEGRADORA: INFRAESTRUCTURA DE REDES Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>INVESTIGACIÓN DE OPERACIONES</t>
-  </si>
-  <si>
-    <t>PERCEPCIÓN Y VISIÓN COMPUTACIONAL</t>
-  </si>
-  <si>
-    <t>ÉTICA PROFESIONAL</t>
-  </si>
-  <si>
-    <t>ALGORITMOS, ANÁLISIS Y PROGRAMACIÓN PARALELA</t>
-  </si>
-  <si>
-    <t>PROYECTOS TECNOLÓGICOS I</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INTEGRADORA: PROYECTOS TECNOLÓGICOS Y/O DE EMPRENDIMIENTO ORIENTADOS A LOS SECTORES URBANO MARGINALES, RURALES Y COMUNIDADES VULNERABLES</t>
-  </si>
-  <si>
-    <t>SEGURIDAD DE LA INFORMACIÓN</t>
-  </si>
-  <si>
-    <t>APRENDIZAJE AUTOMÁTICO</t>
-  </si>
-  <si>
-    <t>COMPUTACIÓN EN LA NUBE</t>
-  </si>
-  <si>
-    <t>PROYECTOS TECNOLÓGICOS II</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INNOVADORA: SEGURIDAD Y/O APLICACIONES INTELIGENTES</t>
-  </si>
-  <si>
-    <t>SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>MINERÍA DE DATOS</t>
-  </si>
-  <si>
-    <t>REDACCIÓN CIENTÍFICA</t>
-  </si>
-  <si>
-    <t>TRABAJO DE TITULACIÓN</t>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>id_docente</t>
+  </si>
+  <si>
+    <t>paralelo</t>
+  </si>
+  <si>
+    <t>Diseño de circuitos</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Diseño digital</t>
+  </si>
+  <si>
+    <t>Teoria de telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Sexto</t>
+  </si>
+  <si>
+    <t>Septimo</t>
+  </si>
+  <si>
+    <t>Octavo</t>
+  </si>
+  <si>
+    <t>Auditoria informatica</t>
+  </si>
+  <si>
+    <t>Administración de centros de computo</t>
+  </si>
+  <si>
+    <t>Arquitectura de Ordenadores</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>Programacion avanzada</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Proyectos informaticos II</t>
+  </si>
+  <si>
+    <t>Catedra integradora: Proyecto de vinculacon: "Centro de asesoria tecnologica"</t>
+  </si>
+  <si>
+    <t>Etica profesional</t>
+  </si>
+  <si>
+    <t>Tecnologia y cambio social</t>
+  </si>
+  <si>
+    <t>Comunicación profesional</t>
   </si>
   <si>
     <t>Primero</t>
   </si>
   <si>
-    <t>Segundo</t>
-  </si>
-  <si>
-    <t>Tercero</t>
+    <t>Electricidad</t>
+  </si>
+  <si>
+    <t>Sistemas operativos</t>
+  </si>
+  <si>
+    <t>Teoria de la distribucion y probabilidad</t>
+  </si>
+  <si>
+    <t>Estadistica inferencial</t>
+  </si>
+  <si>
+    <t>Calculo integral</t>
+  </si>
+  <si>
+    <t>Calculo diferencial</t>
+  </si>
+  <si>
+    <t>A,B</t>
+  </si>
+  <si>
+    <t>Metodologia de la programacion</t>
   </si>
   <si>
     <t>Cuarto</t>
   </si>
   <si>
-    <t>Quinto</t>
-  </si>
-  <si>
-    <t>Sexto</t>
-  </si>
-  <si>
-    <t>Séptimo</t>
-  </si>
-  <si>
-    <t>Octavo</t>
-  </si>
-  <si>
-    <t>Noveno</t>
-  </si>
-  <si>
-    <t>Décimo</t>
-  </si>
-  <si>
-    <t>id_docente</t>
-  </si>
-  <si>
-    <t>paralelo</t>
-  </si>
-  <si>
-    <t>A,B</t>
+    <t>Banco de datos</t>
+  </si>
+  <si>
+    <t>Administracion de emoresas</t>
+  </si>
+  <si>
+    <t>Ingenieria financieras</t>
+  </si>
+  <si>
+    <t>Metodologia de la investigacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyectos informaticos I </t>
+  </si>
+  <si>
+    <t>Diseño y gestion de bases de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigacion de operaciones </t>
+  </si>
+  <si>
+    <t>Estructura de datos y algoritmos fundamentales</t>
+  </si>
+  <si>
+    <t>Diseño de sistemas</t>
+  </si>
+  <si>
+    <t>Gestion de redes</t>
+  </si>
+  <si>
+    <t>Matematicas discretas</t>
+  </si>
+  <si>
+    <t>Estadistica analitica</t>
+  </si>
+  <si>
+    <t>Simulacion</t>
+  </si>
+  <si>
+    <t>Algebra lineal</t>
+  </si>
+  <si>
+    <t>Analisis numerico</t>
+  </si>
+  <si>
+    <t>Ecuaciones diferenciales</t>
+  </si>
+  <si>
+    <t>Arquitectura de computadoras</t>
+  </si>
+  <si>
+    <t>Analisis y diseño de sistemas</t>
+  </si>
+  <si>
+    <t>Lenguaje ensamblador</t>
+  </si>
+  <si>
+    <t>Programacion orientada a objetos</t>
+  </si>
+  <si>
+    <t>Derecho informatico</t>
+  </si>
+  <si>
+    <t>Introduccion a las ciencias de la computacion</t>
+  </si>
+  <si>
+    <t>Teoria de la programacion</t>
+  </si>
+  <si>
+    <t>Contabilidad de costos</t>
+  </si>
+  <si>
+    <t>Economia</t>
+  </si>
+  <si>
+    <t>Contabilidad general</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,16 +534,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -583,753 +560,687 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>nombre</t>
   </si>
@@ -27,202 +27,178 @@
     <t>ciclo</t>
   </si>
   <si>
-    <t>INTRODUCCIÓN A LAS CIENCIAS DE LA COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN PROFESIONAL</t>
-  </si>
-  <si>
-    <t>ÁLGEBRA LINEAL</t>
-  </si>
-  <si>
-    <t>TEORÍA DE LA PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>ELECTRICIDAD</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS DISCRETAS</t>
-  </si>
-  <si>
-    <t>CÁLCULO DIFERENCIAL</t>
-  </si>
-  <si>
-    <t>TEORÍA DE LA DISTRIBUCIÓN Y PROBABILIDAD</t>
-  </si>
-  <si>
-    <t>PROGRAMACIÓN ORIENTADA A OBJETOS</t>
-  </si>
-  <si>
-    <t>DISEÑO DE CIRCUITOS</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA Y CAMBIO SOCIAL</t>
-  </si>
-  <si>
-    <t>ESTRUCTURA DE DATOS Y ALGORITMOS FUNDAMENTALES</t>
-  </si>
-  <si>
-    <t>CÁLCULO INTEGRAL</t>
-  </si>
-  <si>
-    <t>ESTADÍSTICA ANALÍTICA</t>
-  </si>
-  <si>
-    <t>BANCOS DE DATOS</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE ORDENADORES</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INTEGRADORA: PROYECTO DE VINCULACIÓN: "CENTRO DE ASESORÍA TECNOLÓGICA"</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS AVANZADAS</t>
-  </si>
-  <si>
-    <t>ECUACIONES DIFERENCIALES</t>
-  </si>
-  <si>
-    <t>INGENIERÍA DE LA CONTAMINACIÓN</t>
-  </si>
-  <si>
-    <t>PROCESAMIENTO DE TRANSACCIONES</t>
-  </si>
-  <si>
-    <t>PROCESOS DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>COMPLEJIDAD COMPUTACIONAL</t>
-  </si>
-  <si>
-    <t>ANÁLISIS NUMÉRICO</t>
-  </si>
-  <si>
-    <t>ECONOMÍA DE LA COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>PLATAFORMAS WEB</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN DE PROYECTOS DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>TEORÍA DE AUTÓMATAS Y COMPUTABILIDAD AVANZADA</t>
-  </si>
-  <si>
-    <t>SISTEMAS OPERATIVOS</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LAS REDES Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>PLATAFORMAS MÓVILES</t>
-  </si>
-  <si>
-    <t>CÁTEGRA INTEGRADORA: APLICACIONES WEB Y MÓVILES</t>
-  </si>
-  <si>
-    <t>COMPILADORES</t>
-  </si>
-  <si>
-    <t>SISTEMAS DISTRIBUIDOS</t>
-  </si>
-  <si>
-    <t>GESTIÓN DE REDES Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>INTERACCIÓN PERSONA-COMPUTADOR</t>
-  </si>
-  <si>
-    <t>METODOLOGÍA DE LA INVESTIGACIÓN EN LA COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INTEGRADORA: INFRAESTRUCTURA DE REDES Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>INVESTIGACIÓN DE OPERACIONES</t>
-  </si>
-  <si>
-    <t>PERCEPCIÓN Y VISIÓN COMPUTACIONAL</t>
-  </si>
-  <si>
-    <t>ÉTICA PROFESIONAL</t>
-  </si>
-  <si>
-    <t>ALGORITMOS, ANÁLISIS Y PROGRAMACIÓN PARALELA</t>
-  </si>
-  <si>
-    <t>PROYECTOS TECNOLÓGICOS I</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INTEGRADORA: PROYECTOS TECNOLÓGICOS Y/O DE EMPRENDIMIENTO ORIENTADOS A LOS SECTORES URBANO MARGINALES, RURALES Y COMUNIDADES VULNERABLES</t>
-  </si>
-  <si>
-    <t>SEGURIDAD DE LA INFORMACIÓN</t>
-  </si>
-  <si>
-    <t>APRENDIZAJE AUTOMÁTICO</t>
-  </si>
-  <si>
-    <t>COMPUTACIÓN EN LA NUBE</t>
-  </si>
-  <si>
-    <t>PROYECTOS TECNOLÓGICOS II</t>
-  </si>
-  <si>
-    <t>CÁTEDRA INNOVADORA: SEGURIDAD Y/O APLICACIONES INTELIGENTES</t>
-  </si>
-  <si>
-    <t>SIMULACIÓN</t>
-  </si>
-  <si>
-    <t>MINERÍA DE DATOS</t>
-  </si>
-  <si>
-    <t>REDACCIÓN CIENTÍFICA</t>
-  </si>
-  <si>
-    <t>TRABAJO DE TITULACIÓN</t>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>id_docente</t>
+  </si>
+  <si>
+    <t>paralelo</t>
+  </si>
+  <si>
+    <t>Diseño de circuitos</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Diseño digital</t>
+  </si>
+  <si>
+    <t>Sexto</t>
+  </si>
+  <si>
+    <t>Septimo</t>
+  </si>
+  <si>
+    <t>Octavo</t>
+  </si>
+  <si>
+    <t>Arquitectura de Ordenadores</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Comunicación profesional</t>
   </si>
   <si>
     <t>Primero</t>
   </si>
   <si>
-    <t>Segundo</t>
-  </si>
-  <si>
-    <t>Tercero</t>
+    <t>Electricidad</t>
+  </si>
+  <si>
+    <t>Sistemas operativos</t>
+  </si>
+  <si>
+    <t>A,B</t>
   </si>
   <si>
     <t>Cuarto</t>
   </si>
   <si>
-    <t>Quinto</t>
-  </si>
-  <si>
-    <t>Sexto</t>
-  </si>
-  <si>
-    <t>Séptimo</t>
-  </si>
-  <si>
-    <t>Octavo</t>
-  </si>
-  <si>
-    <t>Noveno</t>
-  </si>
-  <si>
-    <t>Décimo</t>
-  </si>
-  <si>
-    <t>id_docente</t>
-  </si>
-  <si>
-    <t>paralelo</t>
-  </si>
-  <si>
-    <t>A,B</t>
+    <t>Banco de datos</t>
+  </si>
+  <si>
+    <t>Estructura de datos y algoritmos fundamentales</t>
+  </si>
+  <si>
+    <t>Diseño de sistemas</t>
+  </si>
+  <si>
+    <t>Ecuaciones diferenciales</t>
+  </si>
+  <si>
+    <t>Arquitectura de computadoras</t>
+  </si>
+  <si>
+    <t>Lenguaje ensamblador</t>
+  </si>
+  <si>
+    <t>Contabilidad de costos</t>
+  </si>
+  <si>
+    <t>Contabilidad general</t>
+  </si>
+  <si>
+    <t>Teoría de telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Administración de centros de cómputo</t>
+  </si>
+  <si>
+    <t>Auditoría informática</t>
+  </si>
+  <si>
+    <t>Programación avanzada</t>
+  </si>
+  <si>
+    <t>Proyectos informáticos II</t>
+  </si>
+  <si>
+    <t>Cátedra integradora: Proyecto de vinculación: "Centro de asesoría tecnológica"</t>
+  </si>
+  <si>
+    <t>Ética profesional</t>
+  </si>
+  <si>
+    <t>Tecnología y cambio social</t>
+  </si>
+  <si>
+    <t>Teoría de la distribución y probabilidad</t>
+  </si>
+  <si>
+    <t>Estadística inferencial</t>
+  </si>
+  <si>
+    <t>Cálculo integral</t>
+  </si>
+  <si>
+    <t>Cálculo diferencial</t>
+  </si>
+  <si>
+    <t>Metodología de la programación</t>
+  </si>
+  <si>
+    <t>Administración de empresas</t>
+  </si>
+  <si>
+    <t>Ingeniería financiera</t>
+  </si>
+  <si>
+    <t>Metodología de la investigación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyectos informáticos I </t>
+  </si>
+  <si>
+    <t>Diseño y gestión de bases de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación de operaciones </t>
+  </si>
+  <si>
+    <t>Gestión de redes</t>
+  </si>
+  <si>
+    <t>Matemáticas discretas</t>
+  </si>
+  <si>
+    <t>Estadística analítica</t>
+  </si>
+  <si>
+    <t>Simulación</t>
+  </si>
+  <si>
+    <t>Álgebra lineal</t>
+  </si>
+  <si>
+    <t>Análisis numérico</t>
+  </si>
+  <si>
+    <t>Análisis y diseño de sistemas</t>
+  </si>
+  <si>
+    <t>Programación orientada a objetos</t>
+  </si>
+  <si>
+    <t>Derecho informático</t>
+  </si>
+  <si>
+    <t>Introducción a las ciencias de la computación</t>
+  </si>
+  <si>
+    <t>Teoría de la programación</t>
+  </si>
+  <si>
+    <t>Economía</t>
   </si>
 </sst>
 </file>
@@ -560,13 +536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -583,753 +559,687 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sgtcis/storage/archivos/plantilla_materias.xlsx
+++ b/sgtcis/storage/archivos/plantilla_materias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="1080" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
   <si>
     <t>nombre</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Economía</t>
+  </si>
+  <si>
+    <t>Séptimo</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +601,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -766,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -906,7 +909,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -962,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1060,7 +1063,7 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
